--- a/bin/com/amex/testdata/API_Details.xlsx
+++ b/bin/com/amex/testdata/API_Details.xlsx
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="H3">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>

--- a/bin/com/amex/testdata/API_Details.xlsx
+++ b/bin/com/amex/testdata/API_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="13395" windowHeight="5190"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="13395" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Request_Name</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>TCID</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>_responseType:1234</t>
+  </si>
+  <si>
+    <t>/disputes-web/disputes/v1/response/reasons/_responseType</t>
   </si>
 </sst>
 </file>
@@ -439,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +559,26 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/bin/com/amex/testdata/API_Details.xlsx
+++ b/bin/com/amex/testdata/API_Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Request_Name</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>/disputes-web/disputes/v1/response/reasons/_responseType</t>
+  </si>
+  <si>
+    <t>reasonCodes[0].disputeRespCd</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +582,9 @@
       </c>
       <c r="H4">
         <v>200</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/bin/com/amex/testdata/API_Details.xlsx
+++ b/bin/com/amex/testdata/API_Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Request_Name</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>reasonCodes[0].disputeRespCd</t>
+  </si>
+  <si>
+    <t>TC_003</t>
   </si>
 </sst>
 </file>
@@ -453,9 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -565,6 +566,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
